--- a/src/Quadrotor_Targets.xlsx
+++ b/src/Quadrotor_Targets.xlsx
@@ -415,1091 +415,1091 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>220.00058521165266</v>
+        <v>220.00026959066784</v>
       </c>
       <c r="B3">
-        <v>250.00168013729635</v>
+        <v>250.00072582102888</v>
       </c>
       <c r="C3">
-        <v>10.864939153266706</v>
+        <v>10.864927139321173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>219.11658521165265</v>
+        <v>219.56226959066782</v>
       </c>
       <c r="B4">
-        <v>249.71168013729636</v>
+        <v>250.04219582102888</v>
       </c>
       <c r="C4">
-        <v>19.99996879121986</v>
+        <v>20.000230880600615</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>219.11193584617953</v>
+        <v>219.55563831273267</v>
       </c>
       <c r="B5">
-        <v>249.7106399810221</v>
+        <v>250.0423588955498</v>
       </c>
       <c r="C5">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>219.11193584617953</v>
+        <v>219.55563831273267</v>
       </c>
       <c r="B6">
-        <v>249.7106399810221</v>
+        <v>250.0423588955498</v>
       </c>
       <c r="C6">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>219.11193584617953</v>
+        <v>219.45563831273267</v>
       </c>
       <c r="B7">
-        <v>249.7106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C7">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>218.11193584617953</v>
+        <v>218.45563831273267</v>
       </c>
       <c r="B8">
-        <v>249.7106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C8">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>218.11193584617953</v>
+        <v>218.45563831273267</v>
       </c>
       <c r="B9">
-        <v>249.7106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C9">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>218.01193584617954</v>
+        <v>218.45563831273267</v>
       </c>
       <c r="B10">
-        <v>249.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C10">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>218.01193584617954</v>
+        <v>218.45563831273267</v>
       </c>
       <c r="B11">
-        <v>249.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C11">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>218.01193584617954</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B12">
-        <v>249.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C12">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>218.01193584617954</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B13">
-        <v>248.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C13">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>218.01193584617954</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B14">
-        <v>248.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C14">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>213.01193584617954</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B15">
-        <v>248.8106399810221</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C15">
-        <v>19.999999999999186</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B16">
-        <v>248.42655919818208</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C16">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B17">
-        <v>248.42655919818208</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C17">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B18">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C18">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B19">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C19">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B20">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C20">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B21">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C21">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B22">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C22">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B23">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C23">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B24">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C24">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B25">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C25">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>212.99808590719545</v>
+        <v>217.45563831273267</v>
       </c>
       <c r="B26">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C26">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>212.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B27">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C27">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>212.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B28">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C28">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>212.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B29">
-        <v>248.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C29">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>212.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B30">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C30">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B31">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C31">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B32">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C32">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B33">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C33">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B34">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C34">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B35">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C35">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>211.99808590719545</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B36">
-        <v>247.52655919818207</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C36">
-        <v>20.000000000001805</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B37">
-        <v>247.57870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C37">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B38">
-        <v>247.57870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C38">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B39">
-        <v>247.57870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C39">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B40">
-        <v>247.57870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C40">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B41">
-        <v>247.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C41">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B42">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C42">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B43">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C43">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B44">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C44">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B45">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C45">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B46">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C46">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B47">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C47">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B48">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C48">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B49">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C49">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B50">
-        <v>242.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C50">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B51">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C51">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B52">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C52">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B53">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C53">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B54">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C54">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>211.99851567270267</v>
+        <v>212.45563831273267</v>
       </c>
       <c r="B55">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C55">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B56">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C56">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B57">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C57">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B58">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C58">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B59">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C59">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B60">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C60">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B61">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C61">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B62">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C62">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B63">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C63">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B64">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C64">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B65">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C65">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B66">
-        <v>240.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C66">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B67">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C67">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B68">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C68">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B69">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C69">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B70">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C70">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B71">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C71">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B72">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C72">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B73">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C73">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B74">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C74">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B75">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C75">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B76">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C76">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B77">
-        <v>238.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C77">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B78">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C78">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B79">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C79">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B80">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C80">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B81">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C81">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B82">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C82">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B83">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C83">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B84">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C84">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B85">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C85">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B86">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C86">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B87">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C87">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B88">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C88">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B89">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C89">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B90">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C90">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B91">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C91">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B92">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C92">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B93">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C93">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B94">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C94">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B95">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C95">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B96">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C96">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B97">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C97">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B98">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C98">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B99">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C99">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B100">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C100">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>211.99851567270267</v>
+        <v>207.45563831273267</v>
       </c>
       <c r="B101">
-        <v>237.47870561437247</v>
+        <v>248.0423588955498</v>
       </c>
       <c r="C101">
-        <v>19.99999999999996</v>
+        <v>20.00000000000059</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_Targets.xlsx
+++ b/src/Quadrotor_Targets.xlsx
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,2196 +410,1316 @@
         <v>250.0</v>
       </c>
       <c r="C2">
-        <v>10.0</v>
+        <v>9.53402874075368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>220.03648391658027</v>
+        <v>221.0</v>
       </c>
       <c r="B3">
-        <v>249.99403494900017</v>
+        <v>249.0</v>
       </c>
       <c r="C3">
-        <v>12.623084307767009</v>
+        <v>11.9175359259421</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>220.00848391658025</v>
+        <v>218.0</v>
       </c>
       <c r="B4">
-        <v>250.34103494900017</v>
+        <v>245.0</v>
       </c>
       <c r="C4">
-        <v>27.609442938811664</v>
+        <v>26.218579037072622</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>222.06015672058024</v>
+        <v>217.0</v>
       </c>
       <c r="B5">
-        <v>248.2834887456802</v>
+        <v>245.0</v>
       </c>
       <c r="C5">
-        <v>29.9999999827548</v>
+        <v>28.602086222261043</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>211.96015826132034</v>
+        <v>215.0</v>
       </c>
       <c r="B6">
-        <v>247.28346582226914</v>
+        <v>240.0</v>
       </c>
       <c r="C6">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>211.96015826132034</v>
+        <v>213.0</v>
       </c>
       <c r="B7">
-        <v>246.28346582226914</v>
+        <v>237.0</v>
       </c>
       <c r="C7">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>211.96015826132034</v>
+        <v>217.0</v>
       </c>
       <c r="B8">
-        <v>246.28346582226914</v>
+        <v>232.0</v>
       </c>
       <c r="C8">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>211.96015826132034</v>
+        <v>216.0</v>
       </c>
       <c r="B9">
-        <v>236.28346582226914</v>
+        <v>229.0</v>
       </c>
       <c r="C9">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>211.96015826132034</v>
+        <v>212.0</v>
       </c>
       <c r="B10">
-        <v>235.28346582226914</v>
+        <v>227.0</v>
       </c>
       <c r="C10">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>211.96015826132034</v>
+        <v>212.0</v>
       </c>
       <c r="B11">
-        <v>235.28346582226914</v>
+        <v>225.0</v>
       </c>
       <c r="C11">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>211.96015826132034</v>
+        <v>214.0</v>
       </c>
       <c r="B12">
-        <v>235.28346582226914</v>
+        <v>221.0</v>
       </c>
       <c r="C12">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>201.96015826132034</v>
+        <v>215.0</v>
       </c>
       <c r="B13">
-        <v>235.28346582226914</v>
+        <v>219.0</v>
       </c>
       <c r="C13">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>201.96015826132034</v>
+        <v>210.0</v>
       </c>
       <c r="B14">
-        <v>235.28346582226914</v>
+        <v>217.0</v>
       </c>
       <c r="C14">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>206.96015826132034</v>
+        <v>211.0</v>
       </c>
       <c r="B15">
-        <v>225.28346582226914</v>
+        <v>214.0</v>
       </c>
       <c r="C15">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>204.96015826132034</v>
+        <v>210.0</v>
       </c>
       <c r="B16">
-        <v>223.38346582226913</v>
+        <v>212.0</v>
       </c>
       <c r="C16">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>204.96015826132034</v>
+        <v>209.0</v>
       </c>
       <c r="B17">
-        <v>223.38346582226913</v>
+        <v>210.0</v>
       </c>
       <c r="C17">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>204.96015826132034</v>
+        <v>209.0</v>
       </c>
       <c r="B18">
-        <v>223.38346582226913</v>
+        <v>210.0</v>
       </c>
       <c r="C18">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>204.96015826132034</v>
+        <v>210.0</v>
       </c>
       <c r="B19">
-        <v>223.38346582226913</v>
+        <v>205.0</v>
       </c>
       <c r="C19">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>204.96015826132034</v>
+        <v>210.0</v>
       </c>
       <c r="B20">
-        <v>223.38346582226913</v>
+        <v>205.0</v>
       </c>
       <c r="C20">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>204.96015826132034</v>
+        <v>200.0</v>
       </c>
       <c r="B21">
-        <v>213.38346582226913</v>
+        <v>204.0</v>
       </c>
       <c r="C21">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>204.96015826132034</v>
+        <v>201.0</v>
       </c>
       <c r="B22">
-        <v>212.38346582226913</v>
+        <v>201.0</v>
       </c>
       <c r="C22">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>204.96015826132034</v>
+        <v>197.0</v>
       </c>
       <c r="B23">
-        <v>212.38346582226913</v>
+        <v>200.0</v>
       </c>
       <c r="C23">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>195.06015826132034</v>
+        <v>197.0</v>
       </c>
       <c r="B24">
-        <v>212.38346582226913</v>
+        <v>197.0</v>
       </c>
       <c r="C24">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>195.06015826132034</v>
+        <v>194.0</v>
       </c>
       <c r="B25">
-        <v>212.38346582226913</v>
+        <v>196.0</v>
       </c>
       <c r="C25">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>195.06015826132034</v>
+        <v>192.0</v>
       </c>
       <c r="B26">
-        <v>211.38346582226913</v>
+        <v>195.0</v>
       </c>
       <c r="C26">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>195.06015826132034</v>
+        <v>191.0</v>
       </c>
       <c r="B27">
-        <v>210.48346582226912</v>
+        <v>192.0</v>
       </c>
       <c r="C27">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>195.06015826132034</v>
+        <v>189.0</v>
       </c>
       <c r="B28">
-        <v>210.48346582226912</v>
+        <v>191.0</v>
       </c>
       <c r="C28">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>195.06015826132034</v>
+        <v>190.0</v>
       </c>
       <c r="B29">
-        <v>200.48346582226912</v>
+        <v>187.0</v>
       </c>
       <c r="C29">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>195.06015826132034</v>
+        <v>190.0</v>
       </c>
       <c r="B30">
-        <v>200.48346582226912</v>
+        <v>184.0</v>
       </c>
       <c r="C30">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>195.06015826132034</v>
+        <v>194.0</v>
       </c>
       <c r="B31">
-        <v>200.48346582226912</v>
+        <v>181.0</v>
       </c>
       <c r="C31">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>195.06015826132034</v>
+        <v>191.0</v>
       </c>
       <c r="B32">
-        <v>200.48346582226912</v>
+        <v>179.0</v>
       </c>
       <c r="C32">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>185.06015826132034</v>
+        <v>190.0</v>
       </c>
       <c r="B33">
-        <v>200.48346582226912</v>
+        <v>177.0</v>
       </c>
       <c r="C33">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>185.06015826132034</v>
+        <v>184.0</v>
       </c>
       <c r="B34">
-        <v>200.48346582226912</v>
+        <v>177.0</v>
       </c>
       <c r="C34">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>205.06015826132034</v>
+        <v>181.0</v>
       </c>
       <c r="B35">
-        <v>200.48346582226912</v>
+        <v>176.0</v>
       </c>
       <c r="C35">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>205.06015826132034</v>
+        <v>179.0</v>
       </c>
       <c r="B36">
-        <v>200.48346582226912</v>
+        <v>176.0</v>
       </c>
       <c r="C36">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>205.06015826132034</v>
+        <v>179.0</v>
       </c>
       <c r="B37">
-        <v>200.48346582226912</v>
+        <v>171.0</v>
       </c>
       <c r="C37">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>205.06015826132034</v>
+        <v>176.0</v>
       </c>
       <c r="B38">
-        <v>200.48346582226912</v>
+        <v>171.0</v>
       </c>
       <c r="C38">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>195.06015826132034</v>
+        <v>173.0</v>
       </c>
       <c r="B39">
-        <v>190.48346582226912</v>
+        <v>170.0</v>
       </c>
       <c r="C39">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>195.06015826132034</v>
+        <v>170.0</v>
       </c>
       <c r="B40">
-        <v>188.48346582226912</v>
+        <v>170.0</v>
       </c>
       <c r="C40">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>195.06015826132034</v>
+        <v>169.0</v>
       </c>
       <c r="B41">
-        <v>187.48346582226912</v>
+        <v>169.0</v>
       </c>
       <c r="C41">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>205.06015826132034</v>
+        <v>168.0</v>
       </c>
       <c r="B42">
-        <v>187.48346582226912</v>
+        <v>165.0</v>
       </c>
       <c r="C42">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>195.06015826132034</v>
+        <v>166.0</v>
       </c>
       <c r="B43">
-        <v>187.48346582226912</v>
+        <v>163.0</v>
       </c>
       <c r="C43">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>185.06015826132034</v>
+        <v>165.0</v>
       </c>
       <c r="B44">
-        <v>187.48346582226912</v>
+        <v>161.0</v>
       </c>
       <c r="C44">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>185.06015826132034</v>
+        <v>163.0</v>
       </c>
       <c r="B45">
-        <v>185.38346582226913</v>
+        <v>159.0</v>
       </c>
       <c r="C45">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>185.06015826132034</v>
+        <v>164.0</v>
       </c>
       <c r="B46">
-        <v>185.38346582226913</v>
+        <v>156.0</v>
       </c>
       <c r="C46">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>185.06015826132034</v>
+        <v>163.0</v>
       </c>
       <c r="B47">
-        <v>185.38346582226913</v>
+        <v>155.0</v>
       </c>
       <c r="C47">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>185.06015826132034</v>
+        <v>160.0</v>
       </c>
       <c r="B48">
-        <v>185.38346582226913</v>
+        <v>152.0</v>
       </c>
       <c r="C48">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>182.86015826132035</v>
+        <v>160.0</v>
       </c>
       <c r="B49">
-        <v>175.48346582226912</v>
+        <v>149.0</v>
       </c>
       <c r="C49">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>181.96015826132034</v>
+        <v>160.0</v>
       </c>
       <c r="B50">
-        <v>175.48346582226912</v>
+        <v>149.0</v>
       </c>
       <c r="C50">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>181.96015826132034</v>
+        <v>161.0</v>
       </c>
       <c r="B51">
-        <v>174.48346582226912</v>
+        <v>144.0</v>
       </c>
       <c r="C51">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>182.06015826132034</v>
+        <v>156.0</v>
       </c>
       <c r="B52">
-        <v>172.48346582226912</v>
+        <v>143.0</v>
       </c>
       <c r="C52">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>182.06015826132034</v>
+        <v>157.0</v>
       </c>
       <c r="B53">
-        <v>172.48346582226912</v>
+        <v>140.0</v>
       </c>
       <c r="C53">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>182.06015826132034</v>
+        <v>157.0</v>
       </c>
       <c r="B54">
-        <v>165.48346582226912</v>
+        <v>140.0</v>
       </c>
       <c r="C54">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>182.06015826132034</v>
+        <v>155.0</v>
       </c>
       <c r="B55">
-        <v>165.58346582226912</v>
+        <v>135.0</v>
       </c>
       <c r="C55">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>182.06015826132034</v>
+        <v>154.0</v>
       </c>
       <c r="B56">
-        <v>165.58346582226912</v>
+        <v>133.0</v>
       </c>
       <c r="C56">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>177.06015826132034</v>
+        <v>150.0</v>
       </c>
       <c r="B57">
-        <v>165.6834658222691</v>
+        <v>132.0</v>
       </c>
       <c r="C57">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>173.96015826132034</v>
+        <v>152.0</v>
       </c>
       <c r="B58">
-        <v>165.58346582226912</v>
+        <v>130.0</v>
       </c>
       <c r="C58">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>173.96015826132034</v>
+        <v>153.0</v>
       </c>
       <c r="B59">
-        <v>163.58346582226912</v>
+        <v>130.0</v>
       </c>
       <c r="C59">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>173.96015826132034</v>
+        <v>163.0</v>
       </c>
       <c r="B60">
-        <v>163.58346582226912</v>
+        <v>125.0</v>
       </c>
       <c r="C60">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>173.96015826132034</v>
+        <v>165.0</v>
       </c>
       <c r="B61">
-        <v>163.58346582226912</v>
+        <v>123.0</v>
       </c>
       <c r="C61">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>162.96015826132034</v>
+        <v>165.0</v>
       </c>
       <c r="B62">
-        <v>163.58346582226912</v>
+        <v>123.0</v>
       </c>
       <c r="C62">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>163.06015826132034</v>
+        <v>165.0</v>
       </c>
       <c r="B63">
-        <v>163.48346582226912</v>
+        <v>123.0</v>
       </c>
       <c r="C63">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>163.06015826132034</v>
+        <v>165.0</v>
       </c>
       <c r="B64">
-        <v>153.48346582226912</v>
+        <v>123.0</v>
       </c>
       <c r="C64">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>162.86015826132035</v>
+        <v>176.0</v>
       </c>
       <c r="B65">
-        <v>153.38346582226913</v>
+        <v>121.0</v>
       </c>
       <c r="C65">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>163.86015826132035</v>
+        <v>179.0</v>
       </c>
       <c r="B66">
-        <v>153.38346582226913</v>
+        <v>122.0</v>
       </c>
       <c r="C66">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>163.86015826132035</v>
+        <v>181.0</v>
       </c>
       <c r="B67">
-        <v>153.38346582226913</v>
+        <v>120.0</v>
       </c>
       <c r="C67">
-        <v>30.0</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>159.93286826132032</v>
+        <v>183.0</v>
       </c>
       <c r="B68">
-        <v>150.13446582226922</v>
+        <v>120.0</v>
       </c>
       <c r="C68">
-        <v>29.999986890710485</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>155.72990589195717</v>
+        <v>183.0</v>
       </c>
       <c r="B69">
-        <v>146.5146976405986</v>
+        <v>114.0</v>
       </c>
       <c r="C69">
-        <v>29.999999999859835</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>155.7299058925438</v>
+        <v>186.0</v>
       </c>
       <c r="B70">
-        <v>147.31469763964546</v>
+        <v>114.0</v>
       </c>
       <c r="C70">
-        <v>30.00000000000889</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>155.7299058925438</v>
+        <v>189.0</v>
       </c>
       <c r="B71">
-        <v>142.41469763964545</v>
+        <v>114.0</v>
       </c>
       <c r="C71">
-        <v>30.00000000000889</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>155.7299058925438</v>
+        <v>191.0</v>
       </c>
       <c r="B72">
-        <v>142.41469763964545</v>
+        <v>113.0</v>
       </c>
       <c r="C72">
-        <v>30.00000000000889</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>155.7299058938106</v>
+        <v>192.0</v>
       </c>
       <c r="B73">
-        <v>142.81469713964546</v>
+        <v>110.0</v>
       </c>
       <c r="C73">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>155.7299058938106</v>
+        <v>194.0</v>
       </c>
       <c r="B74">
-        <v>135.81469713964546</v>
+        <v>108.0</v>
       </c>
       <c r="C74">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>155.7299058938106</v>
+        <v>193.0</v>
       </c>
       <c r="B75">
-        <v>135.81469713964546</v>
+        <v>105.0</v>
       </c>
       <c r="C75">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>155.7299058938106</v>
+        <v>195.0</v>
       </c>
       <c r="B76">
-        <v>134.91469713964545</v>
+        <v>104.0</v>
       </c>
       <c r="C76">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>155.7299058938106</v>
+        <v>196.0</v>
       </c>
       <c r="B77">
-        <v>134.31469713964546</v>
+        <v>100.0</v>
       </c>
       <c r="C77">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>155.7299058938106</v>
+        <v>194.0</v>
       </c>
       <c r="B78">
-        <v>129.31469713964546</v>
+        <v>96.0</v>
       </c>
       <c r="C78">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>155.7299058938106</v>
+        <v>195.0</v>
       </c>
       <c r="B79">
-        <v>129.31469713964546</v>
+        <v>94.0</v>
       </c>
       <c r="C79">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>155.7299058938106</v>
+        <v>199.0</v>
       </c>
       <c r="B80">
-        <v>123.31469713964546</v>
+        <v>93.0</v>
       </c>
       <c r="C80">
-        <v>29.999999999983658</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>165.7299058913037</v>
+        <v>199.0</v>
       </c>
       <c r="B81">
-        <v>123.51469713880235</v>
+        <v>90.0</v>
       </c>
       <c r="C81">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>165.7299058913037</v>
+        <v>200.0</v>
       </c>
       <c r="B82">
-        <v>121.51469713880235</v>
+        <v>88.0</v>
       </c>
       <c r="C82">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>165.7299058913037</v>
+        <v>199.0</v>
       </c>
       <c r="B83">
-        <v>121.51469713880235</v>
+        <v>85.0</v>
       </c>
       <c r="C83">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>150.7299058913037</v>
+        <v>200.0</v>
       </c>
       <c r="B84">
-        <v>119.41469713880235</v>
+        <v>83.0</v>
       </c>
       <c r="C84">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>170.7299058913037</v>
+        <v>199.0</v>
       </c>
       <c r="B85">
-        <v>119.41469713880235</v>
+        <v>80.0</v>
       </c>
       <c r="C85">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>170.7299058913037</v>
+        <v>199.0</v>
       </c>
       <c r="B86">
-        <v>119.41469713880235</v>
+        <v>78.0</v>
       </c>
       <c r="C86">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>170.7299058913037</v>
+        <v>191.0</v>
       </c>
       <c r="B87">
-        <v>114.41469713880235</v>
+        <v>76.0</v>
       </c>
       <c r="C87">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>170.7299058913037</v>
+        <v>191.0</v>
       </c>
       <c r="B88">
-        <v>114.51469713880235</v>
+        <v>73.0</v>
       </c>
       <c r="C88">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>170.7299058913037</v>
+        <v>186.0</v>
       </c>
       <c r="B89">
-        <v>109.51469713880235</v>
+        <v>74.0</v>
       </c>
       <c r="C89">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>170.7299058913037</v>
+        <v>185.0</v>
       </c>
       <c r="B90">
-        <v>109.51469713880235</v>
+        <v>71.0</v>
       </c>
       <c r="C90">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>170.7299058913037</v>
+        <v>181.0</v>
       </c>
       <c r="B91">
-        <v>109.51469713880235</v>
+        <v>71.0</v>
       </c>
       <c r="C91">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>170.7299058913037</v>
+        <v>180.0</v>
       </c>
       <c r="B92">
-        <v>104.51469713880235</v>
+        <v>69.0</v>
       </c>
       <c r="C92">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>170.7299058913037</v>
+        <v>176.0</v>
       </c>
       <c r="B93">
-        <v>104.41469713880235</v>
+        <v>69.0</v>
       </c>
       <c r="C93">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>170.7299058913037</v>
+        <v>173.0</v>
       </c>
       <c r="B94">
-        <v>104.41469713880235</v>
+        <v>70.0</v>
       </c>
       <c r="C94">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>180.7299058913037</v>
+        <v>172.0</v>
       </c>
       <c r="B95">
-        <v>104.41469713880235</v>
+        <v>67.0</v>
       </c>
       <c r="C95">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>180.7299058913037</v>
+        <v>169.0</v>
       </c>
       <c r="B96">
-        <v>104.41469713880235</v>
+        <v>67.0</v>
       </c>
       <c r="C96">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>185.7299058913037</v>
+        <v>167.0</v>
       </c>
       <c r="B97">
-        <v>104.01469713880235</v>
+        <v>65.0</v>
       </c>
       <c r="C97">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>185.7299058913037</v>
+        <v>164.0</v>
       </c>
       <c r="B98">
-        <v>104.11469713880234</v>
+        <v>65.0</v>
       </c>
       <c r="C98">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>185.7299058913037</v>
+        <v>164.0</v>
       </c>
       <c r="B99">
-        <v>97.01469713880235</v>
+        <v>61.0</v>
       </c>
       <c r="C99">
-        <v>30.000000000005304</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>185.72990589127423</v>
+        <v>164.0</v>
       </c>
       <c r="B100">
-        <v>96.53469713879983</v>
+        <v>59.0</v>
       </c>
       <c r="C100">
-        <v>30.00000000000289</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>185.72990589127423</v>
+        <v>164.0</v>
       </c>
       <c r="B101">
-        <v>96.53469713879983</v>
+        <v>55.0</v>
       </c>
       <c r="C101">
-        <v>30.00000000000289</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>185.72990589127423</v>
+        <v>159.0</v>
       </c>
       <c r="B102">
-        <v>96.53469713879983</v>
+        <v>56.0</v>
       </c>
       <c r="C102">
-        <v>30.00000000000289</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>195.72990589117617</v>
+        <v>156.0</v>
       </c>
       <c r="B103">
-        <v>96.53469713878022</v>
+        <v>56.0</v>
       </c>
       <c r="C103">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>195.72990589117617</v>
+        <v>158.0</v>
       </c>
       <c r="B104">
-        <v>96.53469713878022</v>
+        <v>50.0</v>
       </c>
       <c r="C104">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>195.72990589117617</v>
+        <v>155.0</v>
       </c>
       <c r="B105">
-        <v>91.53469713878022</v>
+        <v>49.0</v>
       </c>
       <c r="C105">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>195.72990589117617</v>
+        <v>156.0</v>
       </c>
       <c r="B106">
-        <v>89.53469713878022</v>
+        <v>46.0</v>
       </c>
       <c r="C106">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>195.72990589117617</v>
+        <v>153.0</v>
       </c>
       <c r="B107">
-        <v>87.53469713878022</v>
+        <v>44.0</v>
       </c>
       <c r="C107">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>195.72990589117617</v>
+        <v>152.0</v>
       </c>
       <c r="B108">
-        <v>87.53469713878022</v>
+        <v>42.0</v>
       </c>
       <c r="C108">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>195.72990589117617</v>
+        <v>150.0</v>
       </c>
       <c r="B109">
-        <v>85.53469713878022</v>
+        <v>40.0</v>
       </c>
       <c r="C109">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>195.72990589117617</v>
+        <v>150.0</v>
       </c>
       <c r="B110">
-        <v>80.53469713878022</v>
+        <v>37.0</v>
       </c>
       <c r="C110">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>185.72990589117617</v>
+        <v>149.0</v>
       </c>
       <c r="B111">
-        <v>78.53469713878022</v>
+        <v>35.0</v>
       </c>
       <c r="C111">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>185.72990589117617</v>
+        <v>150.0</v>
       </c>
       <c r="B112">
-        <v>76.53469713878022</v>
+        <v>32.0</v>
       </c>
       <c r="C112">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>185.72990589117617</v>
+        <v>151.0</v>
       </c>
       <c r="B113">
-        <v>75.53469713878022</v>
+        <v>29.0</v>
       </c>
       <c r="C113">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>185.72990589117617</v>
+        <v>150.0</v>
       </c>
       <c r="B114">
-        <v>71.53469713878022</v>
+        <v>28.0</v>
       </c>
       <c r="C114">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>185.72990589117617</v>
+        <v>150.0</v>
       </c>
       <c r="B115">
-        <v>71.53469713878022</v>
+        <v>28.0</v>
       </c>
       <c r="C115">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>185.73090589117618</v>
+        <v>140.0</v>
       </c>
       <c r="B116">
-        <v>71.53469713878022</v>
+        <v>28.0</v>
       </c>
       <c r="C116">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>195.73090589117618</v>
+        <v>140.0</v>
       </c>
       <c r="B117">
-        <v>66.53469713878022</v>
+        <v>25.0</v>
       </c>
       <c r="C117">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>185.73090589117618</v>
+        <v>140.0</v>
       </c>
       <c r="B118">
-        <v>64.53469713878022</v>
+        <v>25.0</v>
       </c>
       <c r="C118">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>185.73090589117618</v>
+        <v>134.0</v>
       </c>
       <c r="B119">
-        <v>64.53469713878022</v>
+        <v>25.0</v>
       </c>
       <c r="C119">
-        <v>29.999999999996938</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>175.7309058906924</v>
+        <v>130.0</v>
       </c>
       <c r="B120">
-        <v>65.53469715878022</v>
+        <v>34.0</v>
       </c>
       <c r="C120">
-        <v>29.99999999999955</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>175.7309058906924</v>
+        <v>128.0</v>
       </c>
       <c r="B121">
-        <v>63.53469715878022</v>
+        <v>34.0</v>
       </c>
       <c r="C121">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>175.7309058906924</v>
-      </c>
-      <c r="B122">
-        <v>63.53469715878022</v>
-      </c>
-      <c r="C122">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>175.7309058906924</v>
-      </c>
-      <c r="B123">
-        <v>63.53469715878022</v>
-      </c>
-      <c r="C123">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>175.7309058906924</v>
-      </c>
-      <c r="B124">
-        <v>63.53469715878022</v>
-      </c>
-      <c r="C124">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>165.63090589069242</v>
-      </c>
-      <c r="B125">
-        <v>63.73469715878022</v>
-      </c>
-      <c r="C125">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>165.63090589069242</v>
-      </c>
-      <c r="B126">
-        <v>61.724697158780224</v>
-      </c>
-      <c r="C126">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>165.63090589069242</v>
-      </c>
-      <c r="B127">
-        <v>61.724697158780224</v>
-      </c>
-      <c r="C127">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>165.63090589069242</v>
-      </c>
-      <c r="B128">
-        <v>61.224697158780224</v>
-      </c>
-      <c r="C128">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>165.63090589069242</v>
-      </c>
-      <c r="B129">
-        <v>62.224697158780224</v>
-      </c>
-      <c r="C129">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
-        <v>155.63090589069242</v>
-      </c>
-      <c r="B130">
-        <v>66.22469715878023</v>
-      </c>
-      <c r="C130">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
-        <v>155.63090589069242</v>
-      </c>
-      <c r="B131">
-        <v>66.22469715878023</v>
-      </c>
-      <c r="C131">
-        <v>29.99999999999955</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
-        <v>155.6309058406924</v>
-      </c>
-      <c r="B132">
-        <v>66.22469715878009</v>
-      </c>
-      <c r="C132">
-        <v>29.999999999999908</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
-        <v>155.6309058406924</v>
-      </c>
-      <c r="B133">
-        <v>66.22469715878009</v>
-      </c>
-      <c r="C133">
-        <v>29.999999999999908</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>155.6309058406924</v>
-      </c>
-      <c r="B134">
-        <v>66.22469715878009</v>
-      </c>
-      <c r="C134">
-        <v>29.999999999999908</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>145.63090584068055</v>
-      </c>
-      <c r="B135">
-        <v>65.22469715876196</v>
-      </c>
-      <c r="C135">
-        <v>30.00000000000212</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>145.53090584068644</v>
-      </c>
-      <c r="B136">
-        <v>73.22469715876451</v>
-      </c>
-      <c r="C136">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
-        <v>145.53090584068644</v>
-      </c>
-      <c r="B137">
-        <v>73.22469715876451</v>
-      </c>
-      <c r="C137">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
-        <v>145.43090584068645</v>
-      </c>
-      <c r="B138">
-        <v>73.22469715876451</v>
-      </c>
-      <c r="C138">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
-        <v>146.53090584068644</v>
-      </c>
-      <c r="B139">
-        <v>73.22469715876451</v>
-      </c>
-      <c r="C139">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
-        <v>145.63090584068644</v>
-      </c>
-      <c r="B140">
-        <v>79.22469715876451</v>
-      </c>
-      <c r="C140">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>145.83090584068643</v>
-      </c>
-      <c r="B141">
-        <v>81.22469715876451</v>
-      </c>
-      <c r="C141">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
-        <v>140.83090584068643</v>
-      </c>
-      <c r="B142">
-        <v>85.22469715876451</v>
-      </c>
-      <c r="C142">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
-        <v>140.82790584068644</v>
-      </c>
-      <c r="B143">
-        <v>86.23469715876452</v>
-      </c>
-      <c r="C143">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
-        <v>140.82790584068644</v>
-      </c>
-      <c r="B144">
-        <v>86.23469715876452</v>
-      </c>
-      <c r="C144">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>135.82790584068644</v>
-      </c>
-      <c r="B145">
-        <v>88.23469715876452</v>
-      </c>
-      <c r="C145">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>135.82790584068644</v>
-      </c>
-      <c r="B146">
-        <v>88.23469715876452</v>
-      </c>
-      <c r="C146">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
-        <v>135.32790584068644</v>
-      </c>
-      <c r="B147">
-        <v>88.23469715876452</v>
-      </c>
-      <c r="C147">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>135.42790584068644</v>
-      </c>
-      <c r="B148">
-        <v>95.23469715876452</v>
-      </c>
-      <c r="C148">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
-        <v>134.02790584068643</v>
-      </c>
-      <c r="B149">
-        <v>95.23469715876452</v>
-      </c>
-      <c r="C149">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>134.02790584068643</v>
-      </c>
-      <c r="B150">
-        <v>95.23469715876452</v>
-      </c>
-      <c r="C150">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>133.92790584068644</v>
-      </c>
-      <c r="B151">
-        <v>95.22469715876451</v>
-      </c>
-      <c r="C151">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>133.92790584068644</v>
-      </c>
-      <c r="B152">
-        <v>95.22469715876451</v>
-      </c>
-      <c r="C152">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
-        <v>138.92790584068644</v>
-      </c>
-      <c r="B153">
-        <v>95.22469715876451</v>
-      </c>
-      <c r="C153">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
-        <v>138.82790584068644</v>
-      </c>
-      <c r="B154">
-        <v>105.22469715876451</v>
-      </c>
-      <c r="C154">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
-        <v>138.92790584068644</v>
-      </c>
-      <c r="B155">
-        <v>105.32469715876451</v>
-      </c>
-      <c r="C155">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>138.82790584068644</v>
-      </c>
-      <c r="B156">
-        <v>105.22469715876451</v>
-      </c>
-      <c r="C156">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>138.32790584068644</v>
-      </c>
-      <c r="B157">
-        <v>106.02469715876451</v>
-      </c>
-      <c r="C157">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>138.32790584068644</v>
-      </c>
-      <c r="B158">
-        <v>106.02469715876451</v>
-      </c>
-      <c r="C158">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>138.32790584068644</v>
-      </c>
-      <c r="B159">
-        <v>106.02469715876451</v>
-      </c>
-      <c r="C159">
-        <v>30.000000000001744</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>137.12790584048292</v>
-      </c>
-      <c r="B160">
-        <v>104.82469710876451</v>
-      </c>
-      <c r="C160">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>137.12790584048292</v>
-      </c>
-      <c r="B161">
-        <v>104.82469710876451</v>
-      </c>
-      <c r="C161">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>137.12790584048292</v>
-      </c>
-      <c r="B162">
-        <v>104.82469710876451</v>
-      </c>
-      <c r="C162">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>137.12790584048292</v>
-      </c>
-      <c r="B163">
-        <v>104.82469710876451</v>
-      </c>
-      <c r="C163">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>137.12790584048292</v>
-      </c>
-      <c r="B164">
-        <v>104.82469710876451</v>
-      </c>
-      <c r="C164">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>137.22790584048292</v>
-      </c>
-      <c r="B165">
-        <v>105.32469710876451</v>
-      </c>
-      <c r="C165">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>137.62790584048292</v>
-      </c>
-      <c r="B166">
-        <v>105.82469710876451</v>
-      </c>
-      <c r="C166">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>137.62790584048292</v>
-      </c>
-      <c r="B167">
-        <v>105.82469710876451</v>
-      </c>
-      <c r="C167">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>137.62790584048292</v>
-      </c>
-      <c r="B168">
-        <v>105.82469710876451</v>
-      </c>
-      <c r="C168">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>137.62790584048292</v>
-      </c>
-      <c r="B169">
-        <v>105.82469710876451</v>
-      </c>
-      <c r="C169">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>137.62790584048292</v>
-      </c>
-      <c r="B170">
-        <v>105.82469710876451</v>
-      </c>
-      <c r="C170">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>136.8279058404829</v>
-      </c>
-      <c r="B171">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C171">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>136.8279058404829</v>
-      </c>
-      <c r="B172">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C172">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>136.8279058404829</v>
-      </c>
-      <c r="B173">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C173">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>146.8279058404829</v>
-      </c>
-      <c r="B174">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C174">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>146.8279058404829</v>
-      </c>
-      <c r="B175">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C175">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>151.8279058404829</v>
-      </c>
-      <c r="B176">
-        <v>105.02469710876451</v>
-      </c>
-      <c r="C176">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>151.8279058404829</v>
-      </c>
-      <c r="B177">
-        <v>105.02469710876451</v>
-      </c>
-      <c r="C177">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>151.8279058404829</v>
-      </c>
-      <c r="B178">
-        <v>105.42469710876452</v>
-      </c>
-      <c r="C178">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>141.8279058404829</v>
-      </c>
-      <c r="B179">
-        <v>104.92469710876452</v>
-      </c>
-      <c r="C179">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>140.4279058404829</v>
-      </c>
-      <c r="B180">
-        <v>104.52469710876451</v>
-      </c>
-      <c r="C180">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>139.72790584048292</v>
-      </c>
-      <c r="B181">
-        <v>105.62469710876451</v>
-      </c>
-      <c r="C181">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>130.12790584048292</v>
-      </c>
-      <c r="B182">
-        <v>105.12469710876451</v>
-      </c>
-      <c r="C182">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>130.22790584048292</v>
-      </c>
-      <c r="B183">
-        <v>104.4246971087645</v>
-      </c>
-      <c r="C183">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>130.22790584048292</v>
-      </c>
-      <c r="B184">
-        <v>106.0246971087645</v>
-      </c>
-      <c r="C184">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>130.4279058404829</v>
-      </c>
-      <c r="B185">
-        <v>109.4246971087645</v>
-      </c>
-      <c r="C185">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
-        <v>130.9279058404829</v>
-      </c>
-      <c r="B186">
-        <v>109.62469710876451</v>
-      </c>
-      <c r="C186">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
-        <v>131.9279058404829</v>
-      </c>
-      <c r="B187">
-        <v>109.62469710876451</v>
-      </c>
-      <c r="C187">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>132.5279058404829</v>
-      </c>
-      <c r="B188">
-        <v>109.4246971087645</v>
-      </c>
-      <c r="C188">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>132.4279058404829</v>
-      </c>
-      <c r="B189">
-        <v>109.62469710876451</v>
-      </c>
-      <c r="C189">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>132.4279058404829</v>
-      </c>
-      <c r="B190">
-        <v>109.62469710876451</v>
-      </c>
-      <c r="C190">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B191">
-        <v>108.5246971087645</v>
-      </c>
-      <c r="C191">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B192">
-        <v>108.5246971087645</v>
-      </c>
-      <c r="C192">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B193">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C193">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B194">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C194">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B195">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C195">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B196">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C196">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B197">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C197">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
-        <v>132.0279058404829</v>
-      </c>
-      <c r="B198">
-        <v>109.0246971087645</v>
-      </c>
-      <c r="C198">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>132.9279058404829</v>
-      </c>
-      <c r="B199">
-        <v>110.5246971087645</v>
-      </c>
-      <c r="C199">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
-        <v>132.92990584048292</v>
-      </c>
-      <c r="B200">
-        <v>110.5216971087645</v>
-      </c>
-      <c r="C200">
-        <v>29.999999999999567</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>137.02990583948147</v>
-      </c>
-      <c r="B201">
-        <v>115.52169705829253</v>
-      </c>
-      <c r="C201">
-        <v>30.000000000010047</v>
+        <v>29.793839814855254</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_Targets.xlsx
+++ b/src/Quadrotor_Targets.xlsx
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +404,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>220.0</v>
+        <v>290.0</v>
       </c>
       <c r="B2">
         <v>250.0</v>
@@ -415,54 +415,54 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>221.0</v>
+        <v>290.0</v>
       </c>
       <c r="B3">
         <v>249.0</v>
       </c>
       <c r="C3">
-        <v>11.9175359259421</v>
+        <v>13.109289518536311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>218.0</v>
+        <v>291.0</v>
       </c>
       <c r="B4">
-        <v>245.0</v>
+        <v>254.0</v>
       </c>
       <c r="C4">
-        <v>26.218579037072622</v>
+        <v>21.45156466669578</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>217.0</v>
+        <v>292.0</v>
       </c>
       <c r="B5">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="C5">
-        <v>28.602086222261043</v>
+        <v>25.026825444478412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>215.0</v>
+        <v>292.0</v>
       </c>
       <c r="B6">
-        <v>240.0</v>
+        <v>256.0</v>
       </c>
       <c r="C6">
-        <v>29.793839814855254</v>
+        <v>28.602086222261043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>213.0</v>
+        <v>291.0</v>
       </c>
       <c r="B7">
-        <v>237.0</v>
+        <v>256.0</v>
       </c>
       <c r="C7">
         <v>29.793839814855254</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>217.0</v>
+        <v>290.0</v>
       </c>
       <c r="B8">
-        <v>232.0</v>
+        <v>263.0</v>
       </c>
       <c r="C8">
         <v>29.793839814855254</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>216.0</v>
+        <v>296.0</v>
       </c>
       <c r="B9">
-        <v>229.0</v>
+        <v>264.0</v>
       </c>
       <c r="C9">
         <v>29.793839814855254</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>212.0</v>
+        <v>286.0</v>
       </c>
       <c r="B10">
-        <v>227.0</v>
+        <v>266.0</v>
       </c>
       <c r="C10">
         <v>29.793839814855254</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>212.0</v>
+        <v>283.0</v>
       </c>
       <c r="B11">
-        <v>225.0</v>
+        <v>266.0</v>
       </c>
       <c r="C11">
         <v>29.793839814855254</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>214.0</v>
+        <v>280.0</v>
       </c>
       <c r="B12">
-        <v>221.0</v>
+        <v>267.0</v>
       </c>
       <c r="C12">
         <v>29.793839814855254</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>215.0</v>
+        <v>278.0</v>
       </c>
       <c r="B13">
-        <v>219.0</v>
+        <v>270.0</v>
       </c>
       <c r="C13">
         <v>29.793839814855254</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>210.0</v>
+        <v>275.0</v>
       </c>
       <c r="B14">
-        <v>217.0</v>
+        <v>271.0</v>
       </c>
       <c r="C14">
         <v>29.793839814855254</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>211.0</v>
+        <v>275.0</v>
       </c>
       <c r="B15">
-        <v>214.0</v>
+        <v>276.0</v>
       </c>
       <c r="C15">
         <v>29.793839814855254</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>210.0</v>
+        <v>274.0</v>
       </c>
       <c r="B16">
-        <v>212.0</v>
+        <v>279.0</v>
       </c>
       <c r="C16">
         <v>29.793839814855254</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>209.0</v>
+        <v>269.0</v>
       </c>
       <c r="B17">
-        <v>210.0</v>
+        <v>279.0</v>
       </c>
       <c r="C17">
         <v>29.793839814855254</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>209.0</v>
+        <v>269.0</v>
       </c>
       <c r="B18">
-        <v>210.0</v>
+        <v>284.0</v>
       </c>
       <c r="C18">
         <v>29.793839814855254</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>210.0</v>
+        <v>265.0</v>
       </c>
       <c r="B19">
-        <v>205.0</v>
+        <v>285.0</v>
       </c>
       <c r="C19">
         <v>29.793839814855254</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>210.0</v>
+        <v>273.0</v>
       </c>
       <c r="B20">
-        <v>205.0</v>
+        <v>290.0</v>
       </c>
       <c r="C20">
         <v>29.793839814855254</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>200.0</v>
+        <v>273.0</v>
       </c>
       <c r="B21">
-        <v>204.0</v>
+        <v>293.0</v>
       </c>
       <c r="C21">
         <v>29.793839814855254</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>201.0</v>
+        <v>274.0</v>
       </c>
       <c r="B22">
-        <v>201.0</v>
+        <v>296.0</v>
       </c>
       <c r="C22">
         <v>29.793839814855254</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>197.0</v>
+        <v>276.0</v>
       </c>
       <c r="B23">
-        <v>200.0</v>
+        <v>299.0</v>
       </c>
       <c r="C23">
         <v>29.793839814855254</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>197.0</v>
+        <v>279.0</v>
       </c>
       <c r="B24">
-        <v>197.0</v>
+        <v>299.0</v>
       </c>
       <c r="C24">
         <v>29.793839814855254</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>194.0</v>
+        <v>279.0</v>
       </c>
       <c r="B25">
-        <v>196.0</v>
+        <v>304.0</v>
       </c>
       <c r="C25">
         <v>29.793839814855254</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>192.0</v>
+        <v>278.0</v>
       </c>
       <c r="B26">
-        <v>195.0</v>
+        <v>309.0</v>
       </c>
       <c r="C26">
         <v>29.793839814855254</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>191.0</v>
+        <v>285.0</v>
       </c>
       <c r="B27">
-        <v>192.0</v>
+        <v>307.0</v>
       </c>
       <c r="C27">
         <v>29.793839814855254</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>189.0</v>
+        <v>288.0</v>
       </c>
       <c r="B28">
-        <v>191.0</v>
+        <v>307.0</v>
       </c>
       <c r="C28">
         <v>29.793839814855254</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>190.0</v>
+        <v>290.0</v>
       </c>
       <c r="B29">
-        <v>187.0</v>
+        <v>311.0</v>
       </c>
       <c r="C29">
         <v>29.793839814855254</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>190.0</v>
+        <v>291.0</v>
       </c>
       <c r="B30">
-        <v>184.0</v>
+        <v>315.0</v>
       </c>
       <c r="C30">
         <v>29.793839814855254</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>194.0</v>
+        <v>295.0</v>
       </c>
       <c r="B31">
-        <v>181.0</v>
+        <v>316.0</v>
       </c>
       <c r="C31">
         <v>29.793839814855254</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>191.0</v>
+        <v>295.0</v>
       </c>
       <c r="B32">
-        <v>179.0</v>
+        <v>321.0</v>
       </c>
       <c r="C32">
         <v>29.793839814855254</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>190.0</v>
+        <v>300.0</v>
       </c>
       <c r="B33">
-        <v>177.0</v>
+        <v>321.0</v>
       </c>
       <c r="C33">
         <v>29.793839814855254</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>184.0</v>
+        <v>299.0</v>
       </c>
       <c r="B34">
-        <v>177.0</v>
+        <v>326.0</v>
       </c>
       <c r="C34">
         <v>29.793839814855254</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>181.0</v>
+        <v>306.0</v>
       </c>
       <c r="B35">
-        <v>176.0</v>
+        <v>324.0</v>
       </c>
       <c r="C35">
         <v>29.793839814855254</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>179.0</v>
+        <v>306.0</v>
       </c>
       <c r="B36">
-        <v>176.0</v>
+        <v>330.0</v>
       </c>
       <c r="C36">
         <v>29.793839814855254</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>179.0</v>
+        <v>311.0</v>
       </c>
       <c r="B37">
-        <v>171.0</v>
+        <v>330.0</v>
       </c>
       <c r="C37">
         <v>29.793839814855254</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>176.0</v>
+        <v>312.0</v>
       </c>
       <c r="B38">
-        <v>171.0</v>
+        <v>335.0</v>
       </c>
       <c r="C38">
         <v>29.793839814855254</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>173.0</v>
+        <v>316.0</v>
       </c>
       <c r="B39">
-        <v>170.0</v>
+        <v>334.0</v>
       </c>
       <c r="C39">
         <v>29.793839814855254</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>170.0</v>
+        <v>321.0</v>
       </c>
       <c r="B40">
-        <v>170.0</v>
+        <v>334.0</v>
       </c>
       <c r="C40">
         <v>29.793839814855254</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>169.0</v>
+        <v>323.0</v>
       </c>
       <c r="B41">
-        <v>169.0</v>
+        <v>339.0</v>
       </c>
       <c r="C41">
         <v>29.793839814855254</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>168.0</v>
+        <v>320.0</v>
       </c>
       <c r="B42">
-        <v>165.0</v>
+        <v>345.0</v>
       </c>
       <c r="C42">
         <v>29.793839814855254</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>166.0</v>
+        <v>326.0</v>
       </c>
       <c r="B43">
-        <v>163.0</v>
+        <v>346.0</v>
       </c>
       <c r="C43">
         <v>29.793839814855254</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>165.0</v>
+        <v>331.0</v>
       </c>
       <c r="B44">
-        <v>161.0</v>
+        <v>344.0</v>
       </c>
       <c r="C44">
         <v>29.793839814855254</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>163.0</v>
+        <v>333.0</v>
       </c>
       <c r="B45">
-        <v>159.0</v>
+        <v>350.0</v>
       </c>
       <c r="C45">
         <v>29.793839814855254</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>164.0</v>
+        <v>334.0</v>
       </c>
       <c r="B46">
-        <v>156.0</v>
+        <v>354.0</v>
       </c>
       <c r="C46">
         <v>29.793839814855254</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>163.0</v>
+        <v>338.0</v>
       </c>
       <c r="B47">
-        <v>155.0</v>
+        <v>355.0</v>
       </c>
       <c r="C47">
         <v>29.793839814855254</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>160.0</v>
+        <v>339.0</v>
       </c>
       <c r="B48">
-        <v>152.0</v>
+        <v>359.0</v>
       </c>
       <c r="C48">
         <v>29.793839814855254</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>160.0</v>
+        <v>344.0</v>
       </c>
       <c r="B49">
-        <v>149.0</v>
+        <v>359.0</v>
       </c>
       <c r="C49">
         <v>29.793839814855254</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>160.0</v>
+        <v>349.0</v>
       </c>
       <c r="B50">
-        <v>149.0</v>
+        <v>359.0</v>
       </c>
       <c r="C50">
         <v>29.793839814855254</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>161.0</v>
+        <v>352.0</v>
       </c>
       <c r="B51">
-        <v>144.0</v>
+        <v>360.0</v>
       </c>
       <c r="C51">
         <v>29.793839814855254</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>156.0</v>
+        <v>355.0</v>
       </c>
       <c r="B52">
-        <v>143.0</v>
+        <v>364.0</v>
       </c>
       <c r="C52">
         <v>29.793839814855254</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>157.0</v>
+        <v>356.0</v>
       </c>
       <c r="B53">
-        <v>140.0</v>
+        <v>369.0</v>
       </c>
       <c r="C53">
         <v>29.793839814855254</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>157.0</v>
+        <v>361.0</v>
       </c>
       <c r="B54">
-        <v>140.0</v>
+        <v>369.0</v>
       </c>
       <c r="C54">
         <v>29.793839814855254</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>155.0</v>
+        <v>361.0</v>
       </c>
       <c r="B55">
-        <v>135.0</v>
+        <v>374.0</v>
       </c>
       <c r="C55">
         <v>29.793839814855254</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>154.0</v>
+        <v>365.0</v>
       </c>
       <c r="B56">
-        <v>133.0</v>
+        <v>376.0</v>
       </c>
       <c r="C56">
         <v>29.793839814855254</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>150.0</v>
+        <v>370.0</v>
       </c>
       <c r="B57">
-        <v>132.0</v>
+        <v>376.0</v>
       </c>
       <c r="C57">
         <v>29.793839814855254</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>152.0</v>
+        <v>374.0</v>
       </c>
       <c r="B58">
-        <v>130.0</v>
+        <v>376.0</v>
       </c>
       <c r="C58">
         <v>29.793839814855254</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>153.0</v>
+        <v>376.0</v>
       </c>
       <c r="B59">
-        <v>130.0</v>
+        <v>381.0</v>
       </c>
       <c r="C59">
         <v>29.793839814855254</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>163.0</v>
+        <v>376.0</v>
       </c>
       <c r="B60">
-        <v>125.0</v>
+        <v>386.0</v>
       </c>
       <c r="C60">
         <v>29.793839814855254</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>165.0</v>
+        <v>382.0</v>
       </c>
       <c r="B61">
-        <v>123.0</v>
+        <v>385.0</v>
       </c>
       <c r="C61">
         <v>29.793839814855254</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>165.0</v>
+        <v>384.0</v>
       </c>
       <c r="B62">
-        <v>123.0</v>
+        <v>389.0</v>
       </c>
       <c r="C62">
         <v>29.793839814855254</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>165.0</v>
+        <v>389.0</v>
       </c>
       <c r="B63">
-        <v>123.0</v>
+        <v>389.0</v>
       </c>
       <c r="C63">
         <v>29.793839814855254</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>165.0</v>
+        <v>392.0</v>
       </c>
       <c r="B64">
-        <v>123.0</v>
+        <v>390.0</v>
       </c>
       <c r="C64">
         <v>29.793839814855254</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>176.0</v>
+        <v>396.0</v>
       </c>
       <c r="B65">
-        <v>121.0</v>
+        <v>386.0</v>
       </c>
       <c r="C65">
         <v>29.793839814855254</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>179.0</v>
+        <v>396.0</v>
       </c>
       <c r="B66">
-        <v>122.0</v>
+        <v>397.0</v>
       </c>
       <c r="C66">
         <v>29.793839814855254</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>181.0</v>
+        <v>400.0</v>
       </c>
       <c r="B67">
-        <v>120.0</v>
+        <v>398.0</v>
       </c>
       <c r="C67">
         <v>29.793839814855254</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>183.0</v>
+        <v>404.0</v>
       </c>
       <c r="B68">
-        <v>120.0</v>
+        <v>399.0</v>
       </c>
       <c r="C68">
         <v>29.793839814855254</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>183.0</v>
+        <v>404.0</v>
       </c>
       <c r="B69">
-        <v>114.0</v>
+        <v>404.0</v>
       </c>
       <c r="C69">
         <v>29.793839814855254</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>186.0</v>
+        <v>409.0</v>
       </c>
       <c r="B70">
-        <v>114.0</v>
+        <v>404.0</v>
       </c>
       <c r="C70">
         <v>29.793839814855254</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>189.0</v>
+        <v>409.0</v>
       </c>
       <c r="B71">
-        <v>114.0</v>
+        <v>410.0</v>
       </c>
       <c r="C71">
         <v>29.793839814855254</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>191.0</v>
+        <v>410.0</v>
       </c>
       <c r="B72">
-        <v>113.0</v>
+        <v>413.0</v>
       </c>
       <c r="C72">
         <v>29.793839814855254</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>192.0</v>
+        <v>415.0</v>
       </c>
       <c r="B73">
-        <v>110.0</v>
+        <v>415.0</v>
       </c>
       <c r="C73">
         <v>29.793839814855254</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>194.0</v>
+        <v>416.0</v>
       </c>
       <c r="B74">
-        <v>108.0</v>
+        <v>419.0</v>
       </c>
       <c r="C74">
         <v>29.793839814855254</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>193.0</v>
+        <v>421.0</v>
       </c>
       <c r="B75">
-        <v>105.0</v>
+        <v>420.0</v>
       </c>
       <c r="C75">
         <v>29.793839814855254</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>195.0</v>
+        <v>426.0</v>
       </c>
       <c r="B76">
-        <v>104.0</v>
+        <v>419.0</v>
       </c>
       <c r="C76">
         <v>29.793839814855254</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>196.0</v>
+        <v>426.0</v>
       </c>
       <c r="B77">
-        <v>100.0</v>
+        <v>425.0</v>
       </c>
       <c r="C77">
         <v>29.793839814855254</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>194.0</v>
+        <v>431.0</v>
       </c>
       <c r="B78">
-        <v>96.0</v>
+        <v>425.0</v>
       </c>
       <c r="C78">
         <v>29.793839814855254</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>195.0</v>
+        <v>434.0</v>
       </c>
       <c r="B79">
-        <v>94.0</v>
+        <v>428.0</v>
       </c>
       <c r="C79">
         <v>29.793839814855254</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>199.0</v>
+        <v>437.0</v>
       </c>
       <c r="B80">
-        <v>93.0</v>
+        <v>430.0</v>
       </c>
       <c r="C80">
         <v>29.793839814855254</v>
@@ -1273,452 +1273,12 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>199.0</v>
+        <v>439.0</v>
       </c>
       <c r="B81">
-        <v>90.0</v>
+        <v>434.0</v>
       </c>
       <c r="C81">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>200.0</v>
-      </c>
-      <c r="B82">
-        <v>88.0</v>
-      </c>
-      <c r="C82">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>199.0</v>
-      </c>
-      <c r="B83">
-        <v>85.0</v>
-      </c>
-      <c r="C83">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>200.0</v>
-      </c>
-      <c r="B84">
-        <v>83.0</v>
-      </c>
-      <c r="C84">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>199.0</v>
-      </c>
-      <c r="B85">
-        <v>80.0</v>
-      </c>
-      <c r="C85">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>199.0</v>
-      </c>
-      <c r="B86">
-        <v>78.0</v>
-      </c>
-      <c r="C86">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>191.0</v>
-      </c>
-      <c r="B87">
-        <v>76.0</v>
-      </c>
-      <c r="C87">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>191.0</v>
-      </c>
-      <c r="B88">
-        <v>73.0</v>
-      </c>
-      <c r="C88">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>186.0</v>
-      </c>
-      <c r="B89">
-        <v>74.0</v>
-      </c>
-      <c r="C89">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>185.0</v>
-      </c>
-      <c r="B90">
-        <v>71.0</v>
-      </c>
-      <c r="C90">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>181.0</v>
-      </c>
-      <c r="B91">
-        <v>71.0</v>
-      </c>
-      <c r="C91">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>180.0</v>
-      </c>
-      <c r="B92">
-        <v>69.0</v>
-      </c>
-      <c r="C92">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>176.0</v>
-      </c>
-      <c r="B93">
-        <v>69.0</v>
-      </c>
-      <c r="C93">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>173.0</v>
-      </c>
-      <c r="B94">
-        <v>70.0</v>
-      </c>
-      <c r="C94">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>172.0</v>
-      </c>
-      <c r="B95">
-        <v>67.0</v>
-      </c>
-      <c r="C95">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>169.0</v>
-      </c>
-      <c r="B96">
-        <v>67.0</v>
-      </c>
-      <c r="C96">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>167.0</v>
-      </c>
-      <c r="B97">
-        <v>65.0</v>
-      </c>
-      <c r="C97">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>164.0</v>
-      </c>
-      <c r="B98">
-        <v>65.0</v>
-      </c>
-      <c r="C98">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>164.0</v>
-      </c>
-      <c r="B99">
-        <v>61.0</v>
-      </c>
-      <c r="C99">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>164.0</v>
-      </c>
-      <c r="B100">
-        <v>59.0</v>
-      </c>
-      <c r="C100">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>164.0</v>
-      </c>
-      <c r="B101">
-        <v>55.0</v>
-      </c>
-      <c r="C101">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>159.0</v>
-      </c>
-      <c r="B102">
-        <v>56.0</v>
-      </c>
-      <c r="C102">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>156.0</v>
-      </c>
-      <c r="B103">
-        <v>56.0</v>
-      </c>
-      <c r="C103">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>158.0</v>
-      </c>
-      <c r="B104">
-        <v>50.0</v>
-      </c>
-      <c r="C104">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>155.0</v>
-      </c>
-      <c r="B105">
-        <v>49.0</v>
-      </c>
-      <c r="C105">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>156.0</v>
-      </c>
-      <c r="B106">
-        <v>46.0</v>
-      </c>
-      <c r="C106">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>153.0</v>
-      </c>
-      <c r="B107">
-        <v>44.0</v>
-      </c>
-      <c r="C107">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>152.0</v>
-      </c>
-      <c r="B108">
-        <v>42.0</v>
-      </c>
-      <c r="C108">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>150.0</v>
-      </c>
-      <c r="B109">
-        <v>40.0</v>
-      </c>
-      <c r="C109">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>150.0</v>
-      </c>
-      <c r="B110">
-        <v>37.0</v>
-      </c>
-      <c r="C110">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>149.0</v>
-      </c>
-      <c r="B111">
-        <v>35.0</v>
-      </c>
-      <c r="C111">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>150.0</v>
-      </c>
-      <c r="B112">
-        <v>32.0</v>
-      </c>
-      <c r="C112">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>151.0</v>
-      </c>
-      <c r="B113">
-        <v>29.0</v>
-      </c>
-      <c r="C113">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>150.0</v>
-      </c>
-      <c r="B114">
-        <v>28.0</v>
-      </c>
-      <c r="C114">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>150.0</v>
-      </c>
-      <c r="B115">
-        <v>28.0</v>
-      </c>
-      <c r="C115">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>140.0</v>
-      </c>
-      <c r="B116">
-        <v>28.0</v>
-      </c>
-      <c r="C116">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>140.0</v>
-      </c>
-      <c r="B117">
-        <v>25.0</v>
-      </c>
-      <c r="C117">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>140.0</v>
-      </c>
-      <c r="B118">
-        <v>25.0</v>
-      </c>
-      <c r="C118">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
-        <v>134.0</v>
-      </c>
-      <c r="B119">
-        <v>25.0</v>
-      </c>
-      <c r="C119">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>130.0</v>
-      </c>
-      <c r="B120">
-        <v>34.0</v>
-      </c>
-      <c r="C120">
-        <v>29.793839814855254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>128.0</v>
-      </c>
-      <c r="B121">
-        <v>34.0</v>
-      </c>
-      <c r="C121">
         <v>29.793839814855254</v>
       </c>
     </row>

--- a/src/Quadrotor_Targets.xlsx
+++ b/src/Quadrotor_Targets.xlsx
@@ -415,10 +415,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="B3">
-        <v>249.0</v>
+        <v>250.0</v>
       </c>
       <c r="C3">
         <v>13.109289518536311</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>291.0</v>
+        <v>292.0</v>
       </c>
       <c r="B4">
-        <v>254.0</v>
+        <v>252.0</v>
       </c>
       <c r="C4">
         <v>21.45156466669578</v>
@@ -437,32 +437,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>292.0</v>
+        <v>297.0</v>
       </c>
       <c r="B5">
-        <v>255.0</v>
+        <v>250.0</v>
       </c>
       <c r="C5">
-        <v>25.026825444478412</v>
+        <v>23.8350718518842</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>292.0</v>
+        <v>298.0</v>
       </c>
       <c r="B6">
-        <v>256.0</v>
+        <v>250.0</v>
       </c>
       <c r="C6">
-        <v>28.602086222261043</v>
+        <v>27.410332629666833</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>291.0</v>
+        <v>299.0</v>
       </c>
       <c r="B7">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="C7">
         <v>29.793839814855254</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>290.0</v>
+        <v>301.0</v>
       </c>
       <c r="B8">
-        <v>263.0</v>
+        <v>245.0</v>
       </c>
       <c r="C8">
         <v>29.793839814855254</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>296.0</v>
+        <v>304.0</v>
       </c>
       <c r="B9">
-        <v>264.0</v>
+        <v>244.0</v>
       </c>
       <c r="C9">
         <v>29.793839814855254</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>286.0</v>
+        <v>304.0</v>
       </c>
       <c r="B10">
-        <v>266.0</v>
+        <v>256.0</v>
       </c>
       <c r="C10">
         <v>29.793839814855254</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>283.0</v>
+        <v>304.0</v>
       </c>
       <c r="B11">
-        <v>266.0</v>
+        <v>259.0</v>
       </c>
       <c r="C11">
         <v>29.793839814855254</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>280.0</v>
+        <v>304.0</v>
       </c>
       <c r="B12">
-        <v>267.0</v>
+        <v>261.0</v>
       </c>
       <c r="C12">
         <v>29.793839814855254</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>278.0</v>
+        <v>306.0</v>
       </c>
       <c r="B13">
-        <v>270.0</v>
+        <v>264.0</v>
       </c>
       <c r="C13">
         <v>29.793839814855254</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>275.0</v>
+        <v>309.0</v>
       </c>
       <c r="B14">
-        <v>271.0</v>
+        <v>266.0</v>
       </c>
       <c r="C14">
         <v>29.793839814855254</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>275.0</v>
+        <v>309.0</v>
       </c>
       <c r="B15">
-        <v>276.0</v>
+        <v>269.0</v>
       </c>
       <c r="C15">
         <v>29.793839814855254</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>274.0</v>
+        <v>310.0</v>
       </c>
       <c r="B16">
-        <v>279.0</v>
+        <v>272.0</v>
       </c>
       <c r="C16">
         <v>29.793839814855254</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>269.0</v>
+        <v>314.0</v>
       </c>
       <c r="B17">
-        <v>279.0</v>
+        <v>274.0</v>
       </c>
       <c r="C17">
         <v>29.793839814855254</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>269.0</v>
+        <v>319.0</v>
       </c>
       <c r="B18">
-        <v>284.0</v>
+        <v>273.0</v>
       </c>
       <c r="C18">
         <v>29.793839814855254</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>265.0</v>
+        <v>321.0</v>
       </c>
       <c r="B19">
-        <v>285.0</v>
+        <v>275.0</v>
       </c>
       <c r="C19">
         <v>29.793839814855254</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>273.0</v>
+        <v>321.0</v>
       </c>
       <c r="B20">
-        <v>290.0</v>
+        <v>281.0</v>
       </c>
       <c r="C20">
         <v>29.793839814855254</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>273.0</v>
+        <v>326.0</v>
       </c>
       <c r="B21">
-        <v>293.0</v>
+        <v>281.0</v>
       </c>
       <c r="C21">
         <v>29.793839814855254</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>274.0</v>
+        <v>325.0</v>
       </c>
       <c r="B22">
-        <v>296.0</v>
+        <v>286.0</v>
       </c>
       <c r="C22">
         <v>29.793839814855254</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>276.0</v>
+        <v>326.0</v>
       </c>
       <c r="B23">
-        <v>299.0</v>
+        <v>290.0</v>
       </c>
       <c r="C23">
         <v>29.793839814855254</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>279.0</v>
+        <v>328.0</v>
       </c>
       <c r="B24">
-        <v>299.0</v>
+        <v>293.0</v>
       </c>
       <c r="C24">
         <v>29.793839814855254</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>279.0</v>
+        <v>329.0</v>
       </c>
       <c r="B25">
-        <v>304.0</v>
+        <v>296.0</v>
       </c>
       <c r="C25">
         <v>29.793839814855254</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>278.0</v>
+        <v>324.0</v>
       </c>
       <c r="B26">
-        <v>309.0</v>
+        <v>299.0</v>
       </c>
       <c r="C26">
         <v>29.793839814855254</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>285.0</v>
+        <v>334.0</v>
       </c>
       <c r="B27">
-        <v>307.0</v>
+        <v>299.0</v>
       </c>
       <c r="C27">
         <v>29.793839814855254</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>288.0</v>
+        <v>334.0</v>
       </c>
       <c r="B28">
-        <v>307.0</v>
+        <v>305.0</v>
       </c>
       <c r="C28">
         <v>29.793839814855254</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>290.0</v>
+        <v>334.0</v>
       </c>
       <c r="B29">
-        <v>311.0</v>
+        <v>309.0</v>
       </c>
       <c r="C29">
         <v>29.793839814855254</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>291.0</v>
+        <v>335.0</v>
       </c>
       <c r="B30">
-        <v>315.0</v>
+        <v>312.0</v>
       </c>
       <c r="C30">
         <v>29.793839814855254</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>295.0</v>
+        <v>336.0</v>
       </c>
       <c r="B31">
         <v>316.0</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>295.0</v>
+        <v>339.0</v>
       </c>
       <c r="B32">
-        <v>321.0</v>
+        <v>319.0</v>
       </c>
       <c r="C32">
         <v>29.793839814855254</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>300.0</v>
+        <v>344.0</v>
       </c>
       <c r="B33">
-        <v>321.0</v>
+        <v>319.0</v>
       </c>
       <c r="C33">
         <v>29.793839814855254</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>299.0</v>
+        <v>348.0</v>
       </c>
       <c r="B34">
-        <v>326.0</v>
+        <v>318.0</v>
       </c>
       <c r="C34">
         <v>29.793839814855254</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>306.0</v>
+        <v>350.0</v>
       </c>
       <c r="B35">
-        <v>324.0</v>
+        <v>318.0</v>
       </c>
       <c r="C35">
         <v>29.793839814855254</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>306.0</v>
+        <v>350.0</v>
       </c>
       <c r="B36">
-        <v>330.0</v>
+        <v>327.0</v>
       </c>
       <c r="C36">
         <v>29.793839814855254</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>311.0</v>
+        <v>354.0</v>
       </c>
       <c r="B37">
-        <v>330.0</v>
+        <v>329.0</v>
       </c>
       <c r="C37">
         <v>29.793839814855254</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>312.0</v>
+        <v>354.0</v>
       </c>
       <c r="B38">
-        <v>335.0</v>
+        <v>333.0</v>
       </c>
       <c r="C38">
         <v>29.793839814855254</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>316.0</v>
+        <v>356.0</v>
       </c>
       <c r="B39">
-        <v>334.0</v>
+        <v>336.0</v>
       </c>
       <c r="C39">
         <v>29.793839814855254</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>321.0</v>
+        <v>362.0</v>
       </c>
       <c r="B40">
-        <v>334.0</v>
+        <v>335.0</v>
       </c>
       <c r="C40">
         <v>29.793839814855254</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>323.0</v>
+        <v>364.0</v>
       </c>
       <c r="B41">
         <v>339.0</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>320.0</v>
+        <v>364.0</v>
       </c>
       <c r="B42">
-        <v>345.0</v>
+        <v>344.0</v>
       </c>
       <c r="C42">
         <v>29.793839814855254</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>326.0</v>
+        <v>364.0</v>
       </c>
       <c r="B43">
-        <v>346.0</v>
+        <v>348.0</v>
       </c>
       <c r="C43">
         <v>29.793839814855254</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>331.0</v>
+        <v>369.0</v>
       </c>
       <c r="B44">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="C44">
         <v>29.793839814855254</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>333.0</v>
+        <v>370.0</v>
       </c>
       <c r="B45">
-        <v>350.0</v>
+        <v>353.0</v>
       </c>
       <c r="C45">
         <v>29.793839814855254</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>334.0</v>
+        <v>375.0</v>
       </c>
       <c r="B46">
         <v>354.0</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>338.0</v>
+        <v>374.0</v>
       </c>
       <c r="B47">
-        <v>355.0</v>
+        <v>359.0</v>
       </c>
       <c r="C47">
         <v>29.793839814855254</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>339.0</v>
+        <v>375.0</v>
       </c>
       <c r="B48">
-        <v>359.0</v>
+        <v>363.0</v>
       </c>
       <c r="C48">
         <v>29.793839814855254</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>344.0</v>
+        <v>381.0</v>
       </c>
       <c r="B49">
-        <v>359.0</v>
+        <v>364.0</v>
       </c>
       <c r="C49">
         <v>29.793839814855254</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>349.0</v>
+        <v>381.0</v>
       </c>
       <c r="B50">
-        <v>359.0</v>
+        <v>369.0</v>
       </c>
       <c r="C50">
         <v>29.793839814855254</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>352.0</v>
+        <v>386.0</v>
       </c>
       <c r="B51">
-        <v>360.0</v>
+        <v>370.0</v>
       </c>
       <c r="C51">
         <v>29.793839814855254</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>355.0</v>
+        <v>386.0</v>
       </c>
       <c r="B52">
-        <v>364.0</v>
+        <v>375.0</v>
       </c>
       <c r="C52">
         <v>29.793839814855254</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>356.0</v>
+        <v>388.0</v>
       </c>
       <c r="B53">
-        <v>369.0</v>
+        <v>378.0</v>
       </c>
       <c r="C53">
         <v>29.793839814855254</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>361.0</v>
+        <v>389.0</v>
       </c>
       <c r="B54">
-        <v>369.0</v>
+        <v>381.0</v>
       </c>
       <c r="C54">
         <v>29.793839814855254</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>361.0</v>
+        <v>389.0</v>
       </c>
       <c r="B55">
-        <v>374.0</v>
+        <v>386.0</v>
       </c>
       <c r="C55">
         <v>29.793839814855254</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>365.0</v>
+        <v>394.0</v>
       </c>
       <c r="B56">
-        <v>376.0</v>
+        <v>388.0</v>
       </c>
       <c r="C56">
         <v>29.793839814855254</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>370.0</v>
+        <v>399.0</v>
       </c>
       <c r="B57">
-        <v>376.0</v>
+        <v>388.0</v>
       </c>
       <c r="C57">
         <v>29.793839814855254</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>374.0</v>
+        <v>402.0</v>
       </c>
       <c r="B58">
-        <v>376.0</v>
+        <v>390.0</v>
       </c>
       <c r="C58">
         <v>29.793839814855254</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>376.0</v>
+        <v>404.0</v>
       </c>
       <c r="B59">
-        <v>381.0</v>
+        <v>394.0</v>
       </c>
       <c r="C59">
         <v>29.793839814855254</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>376.0</v>
+        <v>404.0</v>
       </c>
       <c r="B60">
-        <v>386.0</v>
+        <v>399.0</v>
       </c>
       <c r="C60">
         <v>29.793839814855254</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>382.0</v>
+        <v>409.0</v>
       </c>
       <c r="B61">
-        <v>385.0</v>
+        <v>399.0</v>
       </c>
       <c r="C61">
         <v>29.793839814855254</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>384.0</v>
+        <v>413.0</v>
       </c>
       <c r="B62">
-        <v>389.0</v>
+        <v>400.0</v>
       </c>
       <c r="C62">
         <v>29.793839814855254</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>389.0</v>
+        <v>417.0</v>
       </c>
       <c r="B63">
-        <v>389.0</v>
+        <v>400.0</v>
       </c>
       <c r="C63">
         <v>29.793839814855254</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>392.0</v>
+        <v>420.0</v>
       </c>
       <c r="B64">
-        <v>390.0</v>
+        <v>400.0</v>
       </c>
       <c r="C64">
         <v>29.793839814855254</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>396.0</v>
+        <v>424.0</v>
       </c>
       <c r="B65">
-        <v>386.0</v>
+        <v>401.0</v>
       </c>
       <c r="C65">
         <v>29.793839814855254</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>396.0</v>
+        <v>425.0</v>
       </c>
       <c r="B66">
-        <v>397.0</v>
+        <v>395.0</v>
       </c>
       <c r="C66">
         <v>29.793839814855254</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>400.0</v>
+        <v>429.0</v>
       </c>
       <c r="B67">
-        <v>398.0</v>
+        <v>406.0</v>
       </c>
       <c r="C67">
         <v>29.793839814855254</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>404.0</v>
+        <v>432.0</v>
       </c>
       <c r="B68">
-        <v>399.0</v>
+        <v>408.0</v>
       </c>
       <c r="C68">
         <v>29.793839814855254</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>404.0</v>
+        <v>435.0</v>
       </c>
       <c r="B69">
-        <v>404.0</v>
+        <v>410.0</v>
       </c>
       <c r="C69">
         <v>29.793839814855254</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>409.0</v>
+        <v>430.0</v>
       </c>
       <c r="B70">
-        <v>404.0</v>
+        <v>415.0</v>
       </c>
       <c r="C70">
         <v>29.793839814855254</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>409.0</v>
+        <v>435.0</v>
       </c>
       <c r="B71">
-        <v>410.0</v>
+        <v>417.0</v>
       </c>
       <c r="C71">
         <v>29.793839814855254</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>410.0</v>
+        <v>435.0</v>
       </c>
       <c r="B72">
-        <v>413.0</v>
+        <v>421.0</v>
       </c>
       <c r="C72">
         <v>29.793839814855254</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>415.0</v>
+        <v>436.0</v>
       </c>
       <c r="B73">
-        <v>415.0</v>
+        <v>424.0</v>
       </c>
       <c r="C73">
         <v>29.793839814855254</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>416.0</v>
+        <v>440.0</v>
       </c>
       <c r="B74">
-        <v>419.0</v>
+        <v>427.0</v>
       </c>
       <c r="C74">
         <v>29.793839814855254</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>421.0</v>
+        <v>436.0</v>
       </c>
       <c r="B75">
-        <v>420.0</v>
+        <v>430.0</v>
       </c>
       <c r="C75">
         <v>29.793839814855254</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>426.0</v>
+        <v>443.0</v>
       </c>
       <c r="B76">
-        <v>419.0</v>
+        <v>433.0</v>
       </c>
       <c r="C76">
         <v>29.793839814855254</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>426.0</v>
+        <v>445.0</v>
       </c>
       <c r="B77">
-        <v>425.0</v>
+        <v>436.0</v>
       </c>
       <c r="C77">
         <v>29.793839814855254</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>431.0</v>
+        <v>445.0</v>
       </c>
       <c r="B78">
-        <v>425.0</v>
+        <v>440.0</v>
       </c>
       <c r="C78">
         <v>29.793839814855254</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>434.0</v>
+        <v>450.0</v>
       </c>
       <c r="B79">
-        <v>428.0</v>
+        <v>441.0</v>
       </c>
       <c r="C79">
         <v>29.793839814855254</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>437.0</v>
+        <v>454.0</v>
       </c>
       <c r="B80">
-        <v>430.0</v>
+        <v>441.0</v>
       </c>
       <c r="C80">
         <v>29.793839814855254</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>439.0</v>
+        <v>455.0</v>
       </c>
       <c r="B81">
-        <v>434.0</v>
+        <v>446.0</v>
       </c>
       <c r="C81">
         <v>29.793839814855254</v>

--- a/src/Quadrotor_Targets.xlsx
+++ b/src/Quadrotor_Targets.xlsx
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,882 +404,1322 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>290.0</v>
+        <v>210.0</v>
       </c>
       <c r="B2">
-        <v>250.0</v>
+        <v>350.0</v>
       </c>
       <c r="C2">
-        <v>9.53402874075368</v>
+        <v>10.06919557412736</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>291.0</v>
+        <v>211.0</v>
       </c>
       <c r="B3">
-        <v>250.0</v>
+        <v>351.0</v>
       </c>
       <c r="C3">
-        <v>13.109289518536311</v>
+        <v>13.42559409883648</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>292.0</v>
+        <v>213.0</v>
       </c>
       <c r="B4">
-        <v>252.0</v>
+        <v>356.0</v>
       </c>
       <c r="C4">
-        <v>21.45156466669578</v>
+        <v>26.85118819767296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>297.0</v>
+        <v>212.0</v>
       </c>
       <c r="B5">
-        <v>250.0</v>
+        <v>356.0</v>
       </c>
       <c r="C5">
-        <v>23.8350718518842</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>298.0</v>
+        <v>202.0</v>
       </c>
       <c r="B6">
-        <v>250.0</v>
+        <v>356.0</v>
       </c>
       <c r="C6">
-        <v>27.410332629666833</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>299.0</v>
+        <v>204.0</v>
       </c>
       <c r="B7">
-        <v>255.0</v>
+        <v>346.0</v>
       </c>
       <c r="C7">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>301.0</v>
+        <v>204.0</v>
       </c>
       <c r="B8">
-        <v>245.0</v>
+        <v>341.0</v>
       </c>
       <c r="C8">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>304.0</v>
+        <v>203.0</v>
       </c>
       <c r="B9">
-        <v>244.0</v>
+        <v>336.0</v>
       </c>
       <c r="C9">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>304.0</v>
+        <v>200.0</v>
       </c>
       <c r="B10">
-        <v>256.0</v>
+        <v>334.0</v>
       </c>
       <c r="C10">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>304.0</v>
+        <v>196.0</v>
       </c>
       <c r="B11">
-        <v>259.0</v>
+        <v>334.0</v>
       </c>
       <c r="C11">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>304.0</v>
+        <v>196.0</v>
       </c>
       <c r="B12">
-        <v>261.0</v>
+        <v>334.0</v>
       </c>
       <c r="C12">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>306.0</v>
+        <v>190.0</v>
       </c>
       <c r="B13">
-        <v>264.0</v>
+        <v>331.0</v>
       </c>
       <c r="C13">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>309.0</v>
+        <v>190.0</v>
       </c>
       <c r="B14">
-        <v>266.0</v>
+        <v>326.0</v>
       </c>
       <c r="C14">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>309.0</v>
+        <v>189.0</v>
       </c>
       <c r="B15">
-        <v>269.0</v>
+        <v>323.0</v>
       </c>
       <c r="C15">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>310.0</v>
+        <v>192.0</v>
       </c>
       <c r="B16">
-        <v>272.0</v>
+        <v>318.0</v>
       </c>
       <c r="C16">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>314.0</v>
+        <v>186.0</v>
       </c>
       <c r="B17">
-        <v>274.0</v>
+        <v>317.0</v>
       </c>
       <c r="C17">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>319.0</v>
+        <v>187.0</v>
       </c>
       <c r="B18">
-        <v>273.0</v>
+        <v>313.0</v>
       </c>
       <c r="C18">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>321.0</v>
+        <v>184.0</v>
       </c>
       <c r="B19">
-        <v>275.0</v>
+        <v>310.0</v>
       </c>
       <c r="C19">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>321.0</v>
+        <v>179.0</v>
       </c>
       <c r="B20">
-        <v>281.0</v>
+        <v>309.0</v>
       </c>
       <c r="C20">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>326.0</v>
+        <v>177.0</v>
       </c>
       <c r="B21">
-        <v>281.0</v>
+        <v>306.0</v>
       </c>
       <c r="C21">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>325.0</v>
+        <v>177.0</v>
       </c>
       <c r="B22">
-        <v>286.0</v>
+        <v>302.0</v>
       </c>
       <c r="C22">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>326.0</v>
+        <v>176.0</v>
       </c>
       <c r="B23">
-        <v>290.0</v>
+        <v>298.0</v>
       </c>
       <c r="C23">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>328.0</v>
+        <v>175.0</v>
       </c>
       <c r="B24">
-        <v>293.0</v>
+        <v>295.0</v>
       </c>
       <c r="C24">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>329.0</v>
+        <v>169.0</v>
       </c>
       <c r="B25">
-        <v>296.0</v>
+        <v>294.0</v>
       </c>
       <c r="C25">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>324.0</v>
+        <v>167.0</v>
       </c>
       <c r="B26">
-        <v>299.0</v>
+        <v>292.0</v>
       </c>
       <c r="C26">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>334.0</v>
+        <v>170.0</v>
       </c>
       <c r="B27">
-        <v>299.0</v>
+        <v>285.0</v>
       </c>
       <c r="C27">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>334.0</v>
+        <v>165.0</v>
       </c>
       <c r="B28">
-        <v>305.0</v>
+        <v>283.0</v>
       </c>
       <c r="C28">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>334.0</v>
+        <v>162.0</v>
       </c>
       <c r="B29">
-        <v>309.0</v>
+        <v>281.0</v>
       </c>
       <c r="C29">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>335.0</v>
+        <v>165.0</v>
       </c>
       <c r="B30">
-        <v>312.0</v>
+        <v>275.0</v>
       </c>
       <c r="C30">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>336.0</v>
+        <v>167.0</v>
       </c>
       <c r="B31">
-        <v>316.0</v>
+        <v>271.0</v>
       </c>
       <c r="C31">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>339.0</v>
+        <v>167.0</v>
       </c>
       <c r="B32">
-        <v>319.0</v>
+        <v>267.0</v>
       </c>
       <c r="C32">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>344.0</v>
+        <v>166.0</v>
       </c>
       <c r="B33">
-        <v>319.0</v>
+        <v>264.0</v>
       </c>
       <c r="C33">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>348.0</v>
+        <v>168.0</v>
       </c>
       <c r="B34">
-        <v>318.0</v>
+        <v>260.0</v>
       </c>
       <c r="C34">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>350.0</v>
+        <v>167.0</v>
       </c>
       <c r="B35">
-        <v>318.0</v>
+        <v>256.0</v>
       </c>
       <c r="C35">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>350.0</v>
+        <v>169.0</v>
       </c>
       <c r="B36">
-        <v>327.0</v>
+        <v>253.0</v>
       </c>
       <c r="C36">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>354.0</v>
+        <v>170.0</v>
       </c>
       <c r="B37">
-        <v>329.0</v>
+        <v>250.0</v>
       </c>
       <c r="C37">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>354.0</v>
+        <v>172.0</v>
       </c>
       <c r="B38">
-        <v>333.0</v>
+        <v>246.0</v>
       </c>
       <c r="C38">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>356.0</v>
+        <v>172.0</v>
       </c>
       <c r="B39">
-        <v>336.0</v>
+        <v>242.0</v>
       </c>
       <c r="C39">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>362.0</v>
+        <v>158.0</v>
       </c>
       <c r="B40">
-        <v>335.0</v>
+        <v>241.0</v>
       </c>
       <c r="C40">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>364.0</v>
+        <v>158.0</v>
       </c>
       <c r="B41">
-        <v>339.0</v>
+        <v>236.0</v>
       </c>
       <c r="C41">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>364.0</v>
+        <v>156.0</v>
       </c>
       <c r="B42">
-        <v>344.0</v>
+        <v>233.0</v>
       </c>
       <c r="C42">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>364.0</v>
+        <v>152.0</v>
       </c>
       <c r="B43">
-        <v>348.0</v>
+        <v>232.0</v>
       </c>
       <c r="C43">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>369.0</v>
+        <v>152.0</v>
       </c>
       <c r="B44">
-        <v>349.0</v>
+        <v>227.0</v>
       </c>
       <c r="C44">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>370.0</v>
+        <v>153.0</v>
       </c>
       <c r="B45">
-        <v>353.0</v>
+        <v>222.0</v>
       </c>
       <c r="C45">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>375.0</v>
+        <v>148.0</v>
       </c>
       <c r="B46">
-        <v>354.0</v>
+        <v>222.0</v>
       </c>
       <c r="C46">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>374.0</v>
+        <v>147.0</v>
       </c>
       <c r="B47">
-        <v>359.0</v>
+        <v>217.0</v>
       </c>
       <c r="C47">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>375.0</v>
+        <v>147.0</v>
       </c>
       <c r="B48">
-        <v>363.0</v>
+        <v>217.0</v>
       </c>
       <c r="C48">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>381.0</v>
+        <v>145.0</v>
       </c>
       <c r="B49">
-        <v>364.0</v>
+        <v>209.0</v>
       </c>
       <c r="C49">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>381.0</v>
+        <v>142.0</v>
       </c>
       <c r="B50">
-        <v>369.0</v>
+        <v>207.0</v>
       </c>
       <c r="C50">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>386.0</v>
+        <v>136.0</v>
       </c>
       <c r="B51">
-        <v>370.0</v>
+        <v>207.0</v>
       </c>
       <c r="C51">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>386.0</v>
+        <v>137.0</v>
       </c>
       <c r="B52">
-        <v>375.0</v>
+        <v>202.0</v>
       </c>
       <c r="C52">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>388.0</v>
+        <v>131.0</v>
       </c>
       <c r="B53">
-        <v>378.0</v>
+        <v>201.0</v>
       </c>
       <c r="C53">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>389.0</v>
+        <v>132.0</v>
       </c>
       <c r="B54">
-        <v>381.0</v>
+        <v>197.0</v>
       </c>
       <c r="C54">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>389.0</v>
+        <v>125.0</v>
       </c>
       <c r="B55">
-        <v>386.0</v>
+        <v>197.0</v>
       </c>
       <c r="C55">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>394.0</v>
+        <v>127.0</v>
       </c>
       <c r="B56">
-        <v>388.0</v>
+        <v>189.0</v>
       </c>
       <c r="C56">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>399.0</v>
+        <v>126.0</v>
       </c>
       <c r="B57">
-        <v>388.0</v>
+        <v>185.0</v>
       </c>
       <c r="C57">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>402.0</v>
+        <v>121.0</v>
       </c>
       <c r="B58">
-        <v>390.0</v>
+        <v>184.0</v>
       </c>
       <c r="C58">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>404.0</v>
+        <v>115.0</v>
       </c>
       <c r="B59">
-        <v>394.0</v>
+        <v>185.0</v>
       </c>
       <c r="C59">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>404.0</v>
+        <v>115.0</v>
       </c>
       <c r="B60">
-        <v>399.0</v>
+        <v>180.0</v>
       </c>
       <c r="C60">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>409.0</v>
+        <v>112.0</v>
       </c>
       <c r="B61">
-        <v>399.0</v>
+        <v>177.0</v>
       </c>
       <c r="C61">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>413.0</v>
+        <v>107.0</v>
       </c>
       <c r="B62">
-        <v>400.0</v>
+        <v>177.0</v>
       </c>
       <c r="C62">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>417.0</v>
+        <v>106.0</v>
       </c>
       <c r="B63">
-        <v>400.0</v>
+        <v>171.0</v>
       </c>
       <c r="C63">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>420.0</v>
+        <v>106.0</v>
       </c>
       <c r="B64">
-        <v>400.0</v>
+        <v>166.0</v>
       </c>
       <c r="C64">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>424.0</v>
+        <v>104.0</v>
       </c>
       <c r="B65">
-        <v>401.0</v>
+        <v>164.0</v>
       </c>
       <c r="C65">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>425.0</v>
+        <v>96.0</v>
       </c>
       <c r="B66">
-        <v>395.0</v>
+        <v>167.0</v>
       </c>
       <c r="C66">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>429.0</v>
+        <v>93.0</v>
       </c>
       <c r="B67">
-        <v>406.0</v>
+        <v>163.0</v>
       </c>
       <c r="C67">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>432.0</v>
+        <v>92.0</v>
       </c>
       <c r="B68">
-        <v>408.0</v>
+        <v>158.0</v>
       </c>
       <c r="C68">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>435.0</v>
+        <v>92.0</v>
       </c>
       <c r="B69">
-        <v>410.0</v>
+        <v>178.0</v>
       </c>
       <c r="C69">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>430.0</v>
+        <v>87.0</v>
       </c>
       <c r="B70">
-        <v>415.0</v>
+        <v>177.0</v>
       </c>
       <c r="C70">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>435.0</v>
+        <v>80.0</v>
       </c>
       <c r="B71">
-        <v>417.0</v>
+        <v>166.0</v>
       </c>
       <c r="C71">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>435.0</v>
+        <v>77.0</v>
       </c>
       <c r="B72">
-        <v>421.0</v>
+        <v>167.0</v>
       </c>
       <c r="C72">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>436.0</v>
+        <v>77.0</v>
       </c>
       <c r="B73">
-        <v>424.0</v>
+        <v>167.0</v>
       </c>
       <c r="C73">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>440.0</v>
+        <v>72.0</v>
       </c>
       <c r="B74">
-        <v>427.0</v>
+        <v>158.0</v>
       </c>
       <c r="C74">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>436.0</v>
+        <v>73.0</v>
       </c>
       <c r="B75">
-        <v>430.0</v>
+        <v>152.0</v>
       </c>
       <c r="C75">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>443.0</v>
+        <v>74.0</v>
       </c>
       <c r="B76">
-        <v>433.0</v>
+        <v>148.0</v>
       </c>
       <c r="C76">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>445.0</v>
+        <v>75.0</v>
       </c>
       <c r="B77">
-        <v>436.0</v>
+        <v>145.0</v>
       </c>
       <c r="C77">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>445.0</v>
+        <v>73.0</v>
       </c>
       <c r="B78">
-        <v>440.0</v>
+        <v>142.0</v>
       </c>
       <c r="C78">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>450.0</v>
+        <v>83.0</v>
       </c>
       <c r="B79">
-        <v>441.0</v>
+        <v>141.0</v>
       </c>
       <c r="C79">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>454.0</v>
+        <v>82.0</v>
       </c>
       <c r="B80">
-        <v>441.0</v>
+        <v>137.0</v>
       </c>
       <c r="C80">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>455.0</v>
+        <v>84.0</v>
       </c>
       <c r="B81">
-        <v>446.0</v>
+        <v>135.0</v>
       </c>
       <c r="C81">
-        <v>29.793839814855254</v>
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>85.0</v>
+      </c>
+      <c r="B82">
+        <v>132.0</v>
+      </c>
+      <c r="C82">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>88.0</v>
+      </c>
+      <c r="B83">
+        <v>131.0</v>
+      </c>
+      <c r="C83">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>89.0</v>
+      </c>
+      <c r="B84">
+        <v>127.0</v>
+      </c>
+      <c r="C84">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>93.0</v>
+      </c>
+      <c r="B85">
+        <v>127.0</v>
+      </c>
+      <c r="C85">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>94.0</v>
+      </c>
+      <c r="B86">
+        <v>123.0</v>
+      </c>
+      <c r="C86">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>98.0</v>
+      </c>
+      <c r="B87">
+        <v>122.0</v>
+      </c>
+      <c r="C87">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>99.0</v>
+      </c>
+      <c r="B88">
+        <v>118.0</v>
+      </c>
+      <c r="C88">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>100.0</v>
+      </c>
+      <c r="B89">
+        <v>115.0</v>
+      </c>
+      <c r="C89">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>100.0</v>
+      </c>
+      <c r="B90">
+        <v>110.0</v>
+      </c>
+      <c r="C90">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>105.0</v>
+      </c>
+      <c r="B91">
+        <v>110.0</v>
+      </c>
+      <c r="C91">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>110.0</v>
+      </c>
+      <c r="B92">
+        <v>110.0</v>
+      </c>
+      <c r="C92">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>113.0</v>
+      </c>
+      <c r="B93">
+        <v>108.0</v>
+      </c>
+      <c r="C93">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>116.0</v>
+      </c>
+      <c r="B94">
+        <v>106.0</v>
+      </c>
+      <c r="C94">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>120.0</v>
+      </c>
+      <c r="B95">
+        <v>106.0</v>
+      </c>
+      <c r="C95">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>122.0</v>
+      </c>
+      <c r="B96">
+        <v>101.0</v>
+      </c>
+      <c r="C96">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>124.0</v>
+      </c>
+      <c r="B97">
+        <v>97.0</v>
+      </c>
+      <c r="C97">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>129.0</v>
+      </c>
+      <c r="B98">
+        <v>98.0</v>
+      </c>
+      <c r="C98">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>130.0</v>
+      </c>
+      <c r="B99">
+        <v>93.0</v>
+      </c>
+      <c r="C99">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>120.0</v>
+      </c>
+      <c r="B100">
+        <v>85.0</v>
+      </c>
+      <c r="C100">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>120.0</v>
+      </c>
+      <c r="B101">
+        <v>82.0</v>
+      </c>
+      <c r="C101">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>116.0</v>
+      </c>
+      <c r="B102">
+        <v>80.0</v>
+      </c>
+      <c r="C102">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>117.0</v>
+      </c>
+      <c r="B103">
+        <v>77.0</v>
+      </c>
+      <c r="C103">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>112.0</v>
+      </c>
+      <c r="B104">
+        <v>77.0</v>
+      </c>
+      <c r="C104">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>108.0</v>
+      </c>
+      <c r="B105">
+        <v>76.0</v>
+      </c>
+      <c r="C105">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>110.0</v>
+      </c>
+      <c r="B106">
+        <v>70.0</v>
+      </c>
+      <c r="C106">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>108.0</v>
+      </c>
+      <c r="B107">
+        <v>67.0</v>
+      </c>
+      <c r="C107">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>110.0</v>
+      </c>
+      <c r="B108">
+        <v>62.0</v>
+      </c>
+      <c r="C108">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>105.0</v>
+      </c>
+      <c r="B109">
+        <v>61.0</v>
+      </c>
+      <c r="C109">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>103.0</v>
+      </c>
+      <c r="B110">
+        <v>58.0</v>
+      </c>
+      <c r="C110">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>101.0</v>
+      </c>
+      <c r="B111">
+        <v>55.0</v>
+      </c>
+      <c r="C111">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>97.0</v>
+      </c>
+      <c r="B112">
+        <v>55.0</v>
+      </c>
+      <c r="C112">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>93.0</v>
+      </c>
+      <c r="B113">
+        <v>54.0</v>
+      </c>
+      <c r="C113">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>93.0</v>
+      </c>
+      <c r="B114">
+        <v>48.0</v>
+      </c>
+      <c r="C114">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>92.0</v>
+      </c>
+      <c r="B115">
+        <v>44.0</v>
+      </c>
+      <c r="C115">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>88.0</v>
+      </c>
+      <c r="B116">
+        <v>43.0</v>
+      </c>
+      <c r="C116">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>86.0</v>
+      </c>
+      <c r="B117">
+        <v>40.0</v>
+      </c>
+      <c r="C117">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>82.0</v>
+      </c>
+      <c r="B118">
+        <v>38.0</v>
+      </c>
+      <c r="C118">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>77.0</v>
+      </c>
+      <c r="B119">
+        <v>40.0</v>
+      </c>
+      <c r="C119">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>73.0</v>
+      </c>
+      <c r="B120">
+        <v>41.0</v>
+      </c>
+      <c r="C120">
+        <v>30.20758672238208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>70.0</v>
+      </c>
+      <c r="B121">
+        <v>43.0</v>
+      </c>
+      <c r="C121">
+        <v>30.20758672238208</v>
       </c>
     </row>
   </sheetData>
